--- a/QboImporterTool/bin/Debug/items.xlsx
+++ b/QboImporterTool/bin/Debug/items.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI Projects\QBO Customer Importer\ExcelToQBOCustomer\ExcelToQBOCustomer\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI Projects\QBO Importer Tool\QBO Importer Tool\QboImporterTool\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Item</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>CREDIT</t>
+  </si>
+  <si>
+    <t>2:Job</t>
   </si>
 </sst>
 </file>
@@ -454,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,6 +690,26 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1.33</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/QboImporterTool/bin/Debug/items.xlsx
+++ b/QboImporterTool/bin/Debug/items.xlsx
@@ -2,32 +2,83 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI Projects\QBO Importer Tool\QBO Importer Tool\QboImporterTool\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32505" windowHeight="20160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
+    <definedName name="QBCANSUPPORTUPDATE" localSheetId="0">FALSE</definedName>
+    <definedName name="QBCOMPANYFILENAME" localSheetId="0">"S:\Accounting\backups\Restored_Fixed_114382_Direct Logistics, Inc-2015 restore 12022015.QBW"</definedName>
+    <definedName name="QBENDDATE" localSheetId="0">20151214</definedName>
+    <definedName name="QBHEADERSONSCREEN" localSheetId="0">FALSE</definedName>
+    <definedName name="QBMETADATASIZE" localSheetId="0">0</definedName>
+    <definedName name="QBPRESERVECOLOR" localSheetId="0">TRUE</definedName>
+    <definedName name="QBPRESERVEFONT" localSheetId="0">TRUE</definedName>
+    <definedName name="QBPRESERVEROWHEIGHT" localSheetId="0">TRUE</definedName>
+    <definedName name="QBPRESERVESPACE" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOLAXIS" localSheetId="0">0</definedName>
+    <definedName name="QBREPORTCOMPANYID" localSheetId="0">"b31b184b08c4448aa640aa17b3b7c9fb"</definedName>
+    <definedName name="QBREPORTCOMPARECOL_ANNUALBUDGET" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_AVGCOGS" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_AVGPRICE" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_BUDDIFF" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_BUDGET" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_BUDPCT" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_COGS" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_EXCLUDEAMOUNT" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_EXCLUDECURPERIOD" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_FORECAST" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_GROSSMARGIN" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_GROSSMARGINPCT" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_HOURS" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_PCTCOL" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_PCTEXPENSE" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_PCTINCOME" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_PCTOFSALES" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_PCTROW" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_PPDIFF" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_PPPCT" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_PREVPERIOD" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_PREVYEAR" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_PYDIFF" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_PYPCT" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_QTY" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_RATE" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_TRIPBILLEDMILES" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_TRIPBILLINGAMOUNT" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_TRIPMILES" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_TRIPNOTBILLABLEMILES" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_TRIPTAXDEDUCTIBLEAMOUNT" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_TRIPUNBILLEDMILES" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_YTD" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_YTDBUDGET" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTCOMPARECOL_YTDPCT" localSheetId="0">FALSE</definedName>
+    <definedName name="QBREPORTROWAXIS" localSheetId="0">76</definedName>
+    <definedName name="QBREPORTSUBCOLAXIS" localSheetId="0">0</definedName>
+    <definedName name="QBREPORTTYPE" localSheetId="0">221</definedName>
+    <definedName name="QBROWHEADERS" localSheetId="0">0</definedName>
+    <definedName name="QBSTARTDATE" localSheetId="0">20151214</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
   <si>
     <t>Item</t>
   </si>
@@ -35,85 +86,221 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Asset Account</t>
+  </si>
+  <si>
+    <t>COGS Account</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Preferred Vendor</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Sales Tax Code</t>
-  </si>
-  <si>
-    <t>Quantity On Hand</t>
-  </si>
-  <si>
-    <t>Quantity On Sales Order</t>
-  </si>
-  <si>
-    <t>Reorder Pt (Min)</t>
-  </si>
-  <si>
-    <t>Quantity On Purchase Order</t>
-  </si>
-  <si>
-    <t>Preferred Vendor</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>17:14</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>17:18</t>
+  </si>
+  <si>
+    <t>17:323</t>
+  </si>
+  <si>
+    <t>17:FUEL SURCHARGE 12%</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Bad Debt Exp</t>
+  </si>
+  <si>
+    <t>Farrington</t>
+  </si>
+  <si>
+    <t>License fees</t>
+  </si>
+  <si>
+    <t>Never shipped</t>
+  </si>
+  <si>
+    <t>Rental Fee</t>
+  </si>
+  <si>
+    <t>Royalty Fee</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Shuttle</t>
+  </si>
+  <si>
+    <t>Transport fees</t>
+  </si>
+  <si>
+    <t>MM2010</t>
+  </si>
+  <si>
+    <t>MM2EMP</t>
+  </si>
+  <si>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t>Discounts</t>
+  </si>
+  <si>
+    <t>NSF Check</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4:Admail West</t>
+  </si>
+  <si>
+    <t>4:DBM</t>
+  </si>
+  <si>
+    <t>4:Mailhandlers</t>
+  </si>
+  <si>
+    <t>Fuel Surcharge 10%</t>
+  </si>
+  <si>
+    <t>FUEL SURCHARGE 14%</t>
+  </si>
+  <si>
+    <t>Fuel Surcharge 15%</t>
+  </si>
+  <si>
+    <t>FUEL SURCHARGE 18%</t>
+  </si>
+  <si>
+    <t>Fuel Surcharge</t>
+  </si>
+  <si>
+    <t>Job: ....APPOINTMENTS, DISTRIBUTION TRANSPORTATION AND TRACING AS RELATED TO DROP SHIPMENT OF STANDARD MAIL</t>
+  </si>
+  <si>
+    <t>TRANSPORTATION/ DISTRIBUTION AND..TRACING AS RELATED TO DROP SHIPMENT</t>
+  </si>
+  <si>
+    <t>TRANSPORTATION FOR DROP SHIPMENT</t>
+  </si>
+  <si>
+    <t>ADDITIONAL CHARGE FOR RECONSIGNMENT</t>
+  </si>
+  <si>
+    <t>SEE INVOICE ATTACHMENT</t>
+  </si>
+  <si>
+    <t>ANALYSIS,APPOINTMENTS,DISTRIBUTION..TRANSPORTATION AND TRACING AS..RELATED TO DROP SHIPMENT OF STANDARD MAIL AND WAREHOUSING</t>
+  </si>
+  <si>
+    <t>1st Class Mail Shuttle</t>
+  </si>
+  <si>
+    <t>Mail Manager 2010 Base Program</t>
+  </si>
+  <si>
+    <t>Enhanced Merge Purge Option</t>
+  </si>
+  <si>
+    <t>DISCOUNT ON SERVICES</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Bad debt</t>
+  </si>
+  <si>
+    <t>Sub-Tenant Reimbursement</t>
+  </si>
+  <si>
+    <t>License Fees</t>
+  </si>
+  <si>
+    <t>Unshipped Orders</t>
+  </si>
+  <si>
+    <t>Rental Income</t>
+  </si>
+  <si>
+    <t>Royalty Fees</t>
+  </si>
+  <si>
+    <t>Postage and Delivery</t>
+  </si>
+  <si>
+    <t>Truck Direct Mail, Inc.</t>
+  </si>
+  <si>
+    <t>Software Sales</t>
+  </si>
+  <si>
+    <t>Sales Discounts</t>
+  </si>
+  <si>
+    <t>Cost of Goods Sold</t>
+  </si>
+  <si>
+    <t>BCC Software, Inc</t>
   </si>
   <si>
     <t>Service</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Job: ....APPOINTMENTS, DISTRIBUTION TRANSPORTATION AND TRACING AS RELATED TO DROP SHIPMENT OF STANDARD MAIL</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>ADDITIONAL CHARGE FOR RECONSIGNMENT</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>DISCOUNT ON SERVICES</t>
+    <t>Non-inventory Part</t>
+  </si>
+  <si>
+    <t>Other Charge</t>
   </si>
   <si>
     <t>Discount</t>
-  </si>
-  <si>
-    <t>4:Admail West</t>
-  </si>
-  <si>
-    <t>4:DBM</t>
-  </si>
-  <si>
-    <t>4:Mailhandlers</t>
-  </si>
-  <si>
-    <t>CREDIT</t>
-  </si>
-  <si>
-    <t>2:Job</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.00###;\-#,##0.00###"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0#%;\-#,##0.0#%"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00###;\-#,##0.00###"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0#%;\-#,##0.0#%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -158,7 +345,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -166,17 +353,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -237,7 +429,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,7 +464,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,265 +649,771 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="B22:K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="62.28515625" customWidth="1"/>
-    <col min="3" max="3" width="110.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2">
         <v>133</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2">
+        <v>133</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>133</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1890</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="2">
+        <v>872</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="2">
+        <v>810</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="2">
+        <v>810</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="4">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="4">
         <v>-0.08</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="4">
         <v>-0.04</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1.33</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.1" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Arial,Bold"&amp;8 3:20 PM
+&amp;"Arial,Bold"&amp;8 12/14/15
+&amp;"Arial,Bold"&amp;8 &amp;C&amp;"Arial,Bold"&amp;12 Direct Logistics, Inc
+&amp;"Arial,Bold"&amp;14 Item Price List
+&amp;"Arial,Bold"&amp;10 December 14, 2015</oddHeader>
+    <oddFooter>&amp;R&amp;"Arial,Bold"&amp;8 Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/QboImporterTool/bin/Debug/items.xlsx
+++ b/QboImporterTool/bin/Debug/items.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
   <si>
     <t>Item</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>Discount</t>
+  </si>
+  <si>
+    <t>2:Job</t>
   </si>
 </sst>
 </file>
@@ -649,11 +652,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="B22:K22"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,17 +824,21 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
@@ -843,21 +850,17 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="2">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="2">
         <v>0</v>
       </c>
@@ -869,19 +872,21 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
@@ -893,10 +898,10 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>54</v>
@@ -917,16 +922,16 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="2">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -941,18 +946,20 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>133</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>0</v>
       </c>
       <c r="I12" s="1"/>
@@ -963,17 +970,15 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
+      <c r="E13" s="2"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="3">
@@ -987,18 +992,20 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="1"/>
@@ -1009,11 +1016,11 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1031,11 +1038,11 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1053,11 +1060,11 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1075,11 +1082,11 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -1097,11 +1104,11 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1119,13 +1126,11 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -1143,13 +1148,13 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -1167,11 +1172,13 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -1189,51 +1196,45 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" s="2">
-        <v>1890</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="2">
-        <v>872</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E24" s="2">
-        <v>810</v>
+        <v>1890</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H24" s="2">
-        <v>810</v>
+        <v>872</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>66</v>
@@ -1245,40 +1246,46 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D25" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E25" s="2">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1"/>
+        <v>810</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="I26" s="1"/>
@@ -1289,11 +1296,11 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -1311,31 +1318,29 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="2">
+      <c r="H28" s="3">
         <v>0</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>53</v>
@@ -1343,8 +1348,8 @@
       <c r="D29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="4">
-        <v>-1.4999999999999999E-2</v>
+      <c r="E29" s="2">
+        <v>0</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1359,7 +1364,7 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>53</v>
@@ -1368,7 +1373,7 @@
         <v>54</v>
       </c>
       <c r="E30" s="4">
-        <v>-0.08</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1383,7 +1388,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>53</v>
@@ -1392,7 +1397,7 @@
         <v>54</v>
       </c>
       <c r="E31" s="4">
-        <v>-0.04</v>
+        <v>-0.08</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1401,6 +1406,30 @@
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="4">
+        <v>-0.04</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="s">
         <v>70</v>
       </c>
     </row>

--- a/QboImporterTool/bin/Debug/items.xlsx
+++ b/QboImporterTool/bin/Debug/items.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
     <definedName name="QBCANSUPPORTUPDATE" localSheetId="0">FALSE</definedName>
     <definedName name="QBCOMPANYFILENAME" localSheetId="0">"S:\Accounting\backups\Restored_Fixed_114382_Direct Logistics, Inc-2015 restore 12022015.QBW"</definedName>
-    <definedName name="QBENDDATE" localSheetId="0">20151214</definedName>
+    <definedName name="QBENDDATE" localSheetId="0">20151217</definedName>
     <definedName name="QBHEADERSONSCREEN" localSheetId="0">FALSE</definedName>
     <definedName name="QBMETADATASIZE" localSheetId="0">0</definedName>
     <definedName name="QBPRESERVECOLOR" localSheetId="0">TRUE</definedName>
@@ -66,7 +66,7 @@
     <definedName name="QBREPORTSUBCOLAXIS" localSheetId="0">0</definedName>
     <definedName name="QBREPORTTYPE" localSheetId="0">221</definedName>
     <definedName name="QBROWHEADERS" localSheetId="0">0</definedName>
-    <definedName name="QBSTARTDATE" localSheetId="0">20151214</definedName>
+    <definedName name="QBSTARTDATE" localSheetId="0">20151217</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="77">
   <si>
     <t>Item</t>
   </si>
@@ -101,6 +101,12 @@
     <t>Cost</t>
   </si>
   <si>
+    <t>Sales Tax Code</t>
+  </si>
+  <si>
+    <t>Tax Agency</t>
+  </si>
+  <si>
     <t>Preferred Vendor</t>
   </si>
   <si>
@@ -278,6 +284,12 @@
     <t>Cost of Goods Sold</t>
   </si>
   <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
     <t>BCC Software, Inc</t>
   </si>
   <si>
@@ -294,6 +306,9 @@
   </si>
   <si>
     <t>2:Job</t>
+  </si>
+  <si>
+    <t>Shuttle:4renameafter</t>
   </si>
 </sst>
 </file>
@@ -652,28 +667,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -702,17 +719,23 @@
       <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -723,20 +746,22 @@
         <v>0</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -747,20 +772,22 @@
         <v>0</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
@@ -769,20 +796,22 @@
         <v>0</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -793,20 +822,22 @@
         <v>0</v>
       </c>
       <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -817,94 +848,106 @@
         <v>0</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2">
         <v>133</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -914,21 +957,25 @@
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -938,21 +985,25 @@
       <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2">
         <v>133</v>
@@ -962,21 +1013,25 @@
       <c r="H12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
@@ -984,21 +1039,25 @@
       <c r="H13" s="3">
         <v>0</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -1008,19 +1067,23 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1031,18 +1094,20 @@
         <v>0</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1053,18 +1118,20 @@
         <v>0</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1075,18 +1142,20 @@
         <v>0</v>
       </c>
       <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -1097,18 +1166,20 @@
         <v>0</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1119,18 +1190,20 @@
         <v>0</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -1141,20 +1214,22 @@
         <v>0</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -1165,20 +1240,22 @@
         <v>0</v>
       </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -1189,18 +1266,20 @@
         <v>0</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1211,118 +1290,128 @@
         <v>0</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24" s="2">
-        <v>1890</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="2">
-        <v>872</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E25" s="2">
-        <v>810</v>
+        <v>1890</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H25" s="2">
-        <v>810</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>872</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D26" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E26" s="2">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="I26" s="1"/>
-      <c r="J26" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" s="1"/>
-      <c r="J27" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -1333,115 +1422,157 @@
         <v>0</v>
       </c>
       <c r="I28" s="1"/>
-      <c r="J28" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="2">
+      <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="1"/>
-      <c r="J29" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="4">
-        <v>-1.4999999999999999E-2</v>
+        <v>56</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="2">
         <v>0</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E31" s="4">
-        <v>-0.08</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="2">
         <v>0</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E32" s="4">
-        <v>-0.04</v>
+        <v>-0.08</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="2">
         <v>0</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1" t="s">
-        <v>70</v>
+      <c r="I32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="4">
+        <v>-0.04</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.1" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Arial,Bold"&amp;8 3:20 PM
-&amp;"Arial,Bold"&amp;8 12/14/15
+    <oddHeader>&amp;L&amp;"Arial,Bold"&amp;8 5:59 PM
+&amp;"Arial,Bold"&amp;8 12/17/15
 &amp;"Arial,Bold"&amp;8 &amp;C&amp;"Arial,Bold"&amp;12 Direct Logistics, Inc
 &amp;"Arial,Bold"&amp;14 Item Price List
-&amp;"Arial,Bold"&amp;10 December 14, 2015</oddHeader>
+&amp;"Arial,Bold"&amp;10 December 17, 2015</oddHeader>
     <oddFooter>&amp;R&amp;"Arial,Bold"&amp;8 Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
